--- a/static/download/2022/RP3_APT_CDO_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_APT_CDO_2022_Jan_Dec.xlsx
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>44944.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
